--- a/Production of electricity.xlsx
+++ b/Production of electricity.xlsx
@@ -756,13 +756,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y678"/>
+  <dimension ref="A1:AJ678"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="U2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2:XFD2"/>
+      <selection pane="bottomRight" activeCell="X2" sqref="X2:AJ4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="12.75" customHeight="1"/>
@@ -773,7 +773,7 @@
     <col min="22" max="25" width="9.33203125" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="1" customFormat="1" ht="12.9" customHeight="1">
+    <row r="1" spans="1:36" s="1" customFormat="1" ht="12.9" customHeight="1" thickBot="1">
       <c r="A1" s="26" t="s">
         <v>24</v>
       </c>
@@ -849,8 +849,41 @@
       <c r="Y1" s="19">
         <v>2013</v>
       </c>
-    </row>
-    <row r="2" spans="1:25" s="3" customFormat="1" ht="12.9" customHeight="1">
+      <c r="Z1" s="24">
+        <v>2014</v>
+      </c>
+      <c r="AA1" s="19">
+        <v>2015</v>
+      </c>
+      <c r="AB1" s="24">
+        <v>2016</v>
+      </c>
+      <c r="AC1" s="19">
+        <v>2017</v>
+      </c>
+      <c r="AD1" s="24">
+        <v>2018</v>
+      </c>
+      <c r="AE1" s="19">
+        <v>2019</v>
+      </c>
+      <c r="AF1" s="24">
+        <v>2020</v>
+      </c>
+      <c r="AG1" s="19">
+        <v>2021</v>
+      </c>
+      <c r="AH1" s="24">
+        <v>2022</v>
+      </c>
+      <c r="AI1" s="19">
+        <v>2023</v>
+      </c>
+      <c r="AJ1" s="24">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="2" spans="1:36" s="3" customFormat="1" ht="12.9" customHeight="1">
       <c r="A2" s="30" t="s">
         <v>12</v>
       </c>
@@ -926,8 +959,41 @@
       <c r="Y2" s="17">
         <v>14011.4</v>
       </c>
-    </row>
-    <row r="3" spans="1:25" s="3" customFormat="1" ht="12.9" customHeight="1">
+      <c r="Z2" s="17">
+        <v>12854.5</v>
+      </c>
+      <c r="AA2" s="17">
+        <v>11697.6</v>
+      </c>
+      <c r="AB2" s="17">
+        <v>10540.7</v>
+      </c>
+      <c r="AC2" s="17">
+        <v>9383.7999999999993</v>
+      </c>
+      <c r="AD2" s="17">
+        <v>8226.9</v>
+      </c>
+      <c r="AE2" s="17">
+        <v>7070</v>
+      </c>
+      <c r="AF2" s="17">
+        <v>5913.1</v>
+      </c>
+      <c r="AG2" s="17">
+        <v>4756.2</v>
+      </c>
+      <c r="AH2" s="17">
+        <v>3599.3</v>
+      </c>
+      <c r="AI2" s="17">
+        <v>2442.4</v>
+      </c>
+      <c r="AJ2" s="17">
+        <v>1285.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:36" s="3" customFormat="1" ht="12.9" customHeight="1">
       <c r="A3" s="32" t="s">
         <v>15</v>
       </c>
@@ -1003,8 +1069,41 @@
       <c r="Y3" s="3">
         <v>13096.7</v>
       </c>
-    </row>
-    <row r="4" spans="1:25" s="3" customFormat="1" ht="12.9" customHeight="1">
+      <c r="Z3" s="66">
+        <v>12014.4</v>
+      </c>
+      <c r="AA3" s="3">
+        <v>10932.1</v>
+      </c>
+      <c r="AB3" s="66">
+        <v>9849.7999999999993</v>
+      </c>
+      <c r="AC3" s="3">
+        <v>8767.5</v>
+      </c>
+      <c r="AD3" s="66">
+        <v>7685.2</v>
+      </c>
+      <c r="AE3" s="3">
+        <v>6602.9000000000096</v>
+      </c>
+      <c r="AF3" s="66">
+        <v>5520.6000000000104</v>
+      </c>
+      <c r="AG3" s="3">
+        <v>4438.3000000000102</v>
+      </c>
+      <c r="AH3" s="66">
+        <v>3356</v>
+      </c>
+      <c r="AI3" s="3">
+        <v>2273.6999999999998</v>
+      </c>
+      <c r="AJ3" s="66">
+        <v>1191.4000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:36" s="3" customFormat="1" ht="12.9" customHeight="1">
       <c r="A4" s="32" t="s">
         <v>18</v>
       </c>
@@ -1080,8 +1179,41 @@
       <c r="Y4" s="3">
         <v>914.7</v>
       </c>
-    </row>
-    <row r="5" spans="1:25" s="3" customFormat="1" ht="12" customHeight="1">
+      <c r="Z4" s="3">
+        <v>840.1</v>
+      </c>
+      <c r="AA4" s="3">
+        <v>765.5</v>
+      </c>
+      <c r="AB4" s="3">
+        <v>690.9</v>
+      </c>
+      <c r="AC4" s="3">
+        <v>616.29999999999995</v>
+      </c>
+      <c r="AD4" s="3">
+        <v>541.70000000000095</v>
+      </c>
+      <c r="AE4" s="3">
+        <v>467.10000000000099</v>
+      </c>
+      <c r="AF4" s="3">
+        <v>392.50000000000102</v>
+      </c>
+      <c r="AG4" s="3">
+        <v>317.900000000001</v>
+      </c>
+      <c r="AH4" s="3">
+        <v>243.30000000000101</v>
+      </c>
+      <c r="AI4" s="3">
+        <v>168.70000000000101</v>
+      </c>
+      <c r="AJ4" s="3">
+        <v>94.100000000000904</v>
+      </c>
+    </row>
+    <row r="5" spans="1:36" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="A5" s="31"/>
       <c r="B5" s="5"/>
       <c r="C5" s="8"/>
@@ -1108,77 +1240,77 @@
       <c r="X5" s="8"/>
       <c r="Y5" s="8"/>
     </row>
-    <row r="6" spans="1:25" s="3" customFormat="1" ht="12" customHeight="1">
+    <row r="6" spans="1:36" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
       <c r="T6" s="12"/>
       <c r="U6" s="12"/>
     </row>
-    <row r="7" spans="1:25" s="3" customFormat="1" ht="12" customHeight="1">
+    <row r="7" spans="1:36" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
       <c r="T7" s="12"/>
       <c r="U7" s="12"/>
     </row>
-    <row r="8" spans="1:25" s="3" customFormat="1" ht="12" customHeight="1">
+    <row r="8" spans="1:36" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
       <c r="T8" s="12"/>
       <c r="U8" s="12"/>
     </row>
-    <row r="9" spans="1:25" s="3" customFormat="1" ht="12" customHeight="1">
+    <row r="9" spans="1:36" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
       <c r="T9" s="12"/>
       <c r="U9" s="12"/>
     </row>
-    <row r="10" spans="1:25" s="3" customFormat="1" ht="12" customHeight="1">
+    <row r="10" spans="1:36" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
       <c r="T10" s="12"/>
       <c r="U10" s="12"/>
     </row>
-    <row r="11" spans="1:25" s="3" customFormat="1" ht="12" customHeight="1">
+    <row r="11" spans="1:36" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
       <c r="T11" s="12"/>
       <c r="U11" s="12"/>
     </row>
-    <row r="12" spans="1:25" s="3" customFormat="1" ht="12" customHeight="1">
+    <row r="12" spans="1:36" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
       <c r="T12" s="12"/>
       <c r="U12" s="12"/>
     </row>
-    <row r="13" spans="1:25" s="3" customFormat="1" ht="12" customHeight="1">
+    <row r="13" spans="1:36" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="T13" s="12"/>
       <c r="U13" s="12"/>
     </row>
-    <row r="14" spans="1:25" s="3" customFormat="1" ht="12" customHeight="1">
+    <row r="14" spans="1:36" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="T14" s="12"/>
       <c r="U14" s="12"/>
     </row>
-    <row r="15" spans="1:25" s="3" customFormat="1" ht="12" customHeight="1">
+    <row r="15" spans="1:36" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="T15" s="12"/>
       <c r="U15" s="12"/>
     </row>
-    <row r="16" spans="1:25" s="3" customFormat="1" ht="12" customHeight="1">
+    <row r="16" spans="1:36" s="3" customFormat="1" ht="12" customHeight="1">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -4274,7 +4406,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.39370078740157" right="0.19685039370078999" top="0.59055118110236005" bottom="0.59055118110236005" header="0.51181102362205" footer="0.51181102362205"/>
-  <pageSetup paperSize="9" scale="86" orientation="landscape"/>
+  <pageSetup paperSize="9" scale="86" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
